--- a/amc_excelmaestro/amc_model_master_2025-11-15.xlsx
+++ b/amc_excelmaestro/amc_model_master_2025-11-15.xlsx
@@ -510,7 +510,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CSV maestro no disponible</t>
+          <t>CSV maestro de AMC no disponible</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -536,7 +536,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Subir debt_schedule_master.csv a GitHub</t>
+          <t>Subir debt_schedule_master.csv a GitHub para AMC</t>
         </is>
       </c>
     </row>
